--- a/biology/Mycologie/Resupinatus/Resupinatus.xlsx
+++ b/biology/Mycologie/Resupinatus/Resupinatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Resupinatus est un genre de champignons basidiomycètes de la famille des Tricholomataceae.
 Il est caractérisé par un sporophore résupiné ressemblant morphologiquement au genre Pleurotus.
@@ -514,9 +526,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (19 novembre 2013)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (19 novembre 2013) :
 Resupinatus alboniger
 Resupinatus algidus
 Resupinatus applicatus
@@ -551,7 +565,7 @@
 Resupinatus urceolatus
 Resupinatus vetlinianus
 Resupinatus vinosolividus
-Selon Index Fungorum                                      (19 novembre 2013)[2] :
+Selon Index Fungorum                                      (19 novembre 2013) :
 Resupinatus alboniger (Pat.) Singer 1978
 Resupinatus algidus (Fr.) M. Lange 1955
 Resupinatus applicatus (Batsch) Gray 1821
@@ -589,7 +603,7 @@
 Resupinatus urceolatus (Wallr. ex Fr.) Thorn, Moncalvo &amp; Redhead 2006
 Resupinatus vetlinianus (Domański) M.M. Moser 1979
 Resupinatus vinosolividus (Segedin) J.A. Cooper 2012
-Selon NCBI  (19 novembre 2013)[3] :
+Selon NCBI  (19 novembre 2013) :
 Resupinatus alboniger
 Resupinatus applicatus
 Resupinatus conspersus
